--- a/documents/Data_Catalogue.xlsx
+++ b/documents/Data_Catalogue.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/tanmoy_halder_gds_ey_com/Documents/Documents/Projects/Life Insurance AI Use Cases/Persistency/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/tanmoy_halder_gds_ey_com/Documents/Documents/Projects/Life Insurance/Persistency/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="302" documentId="8_{42136574-2A26-41C1-BCFA-B1B0389A22A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7848C2C-6DAE-4767-987C-CE0CE4616E5B}"/>
+  <xr:revisionPtr revIDLastSave="306" documentId="8_{42136574-2A26-41C1-BCFA-B1B0389A22A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2AE7251-16E4-4AEE-A0AB-708A47D0A298}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{DB915028-8F54-4F1F-9592-C60BFE66BE6A}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="1" xr2:uid="{DB915028-8F54-4F1F-9592-C60BFE66BE6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Reqd Metadata" sheetId="1" r:id="rId1"/>
@@ -990,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6026D75F-805D-41E8-9AC4-58A86AAAD815}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1117,17 +1117,17 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>63</v>
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1135,13 +1135,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1149,10 +1149,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>52</v>
@@ -1163,13 +1163,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1177,13 +1177,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1191,10 +1191,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>63</v>
@@ -1205,13 +1205,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1219,10 +1219,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>52</v>
@@ -1233,13 +1233,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1247,10 +1247,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>57</v>
@@ -1261,13 +1261,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1275,10 +1275,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>52</v>
@@ -1289,10 +1289,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>52</v>
@@ -1303,13 +1303,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1317,10 +1317,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>57</v>
@@ -1331,27 +1331,27 @@
         <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>63</v>
+      <c r="A25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1359,13 +1359,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1373,10 +1373,10 @@
         <v>5</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>54</v>
@@ -1387,13 +1387,13 @@
         <v>5</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1401,10 +1401,10 @@
         <v>5</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>52</v>
@@ -1415,13 +1415,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1429,10 +1429,10 @@
         <v>5</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>57</v>
@@ -1443,13 +1443,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1457,13 +1457,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1471,10 +1471,10 @@
         <v>5</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>57</v>
@@ -1485,13 +1485,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1499,13 +1499,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1513,13 +1513,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1527,13 +1527,13 @@
         <v>5</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1541,13 +1541,13 @@
         <v>5</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1578,32 +1578,32 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>97</v>
+      <c r="B42" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>50</v>
+      <c r="B43" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
